--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.44675466666667</v>
+        <v>6.162983666666666</v>
       </c>
       <c r="H2">
-        <v>31.340264</v>
+        <v>18.488951</v>
       </c>
       <c r="I2">
-        <v>0.2092639271807731</v>
+        <v>0.08645678993430435</v>
       </c>
       <c r="J2">
-        <v>0.2499877559676775</v>
+        <v>0.1144526672494406</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N2">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O2">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P2">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q2">
-        <v>133.8210538286631</v>
+        <v>49.43521278690945</v>
       </c>
       <c r="R2">
-        <v>1204.389484457968</v>
+        <v>444.916915082185</v>
       </c>
       <c r="S2">
-        <v>0.06307557035462744</v>
+        <v>0.0200444690877504</v>
       </c>
       <c r="T2">
-        <v>0.08252610051480663</v>
+        <v>0.02947411957374894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.44675466666667</v>
+        <v>6.162983666666666</v>
       </c>
       <c r="H3">
-        <v>31.340264</v>
+        <v>18.488951</v>
       </c>
       <c r="I3">
-        <v>0.2092639271807731</v>
+        <v>0.08645678993430435</v>
       </c>
       <c r="J3">
-        <v>0.2499877559676775</v>
+        <v>0.1144526672494406</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.103086</v>
       </c>
       <c r="O3">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P3">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q3">
-        <v>122.2377758283004</v>
+        <v>72.1132485558651</v>
       </c>
       <c r="R3">
-        <v>1100.139982454704</v>
+        <v>649.019237002786</v>
       </c>
       <c r="S3">
-        <v>0.05761587738744657</v>
+        <v>0.02923972002964783</v>
       </c>
       <c r="T3">
-        <v>0.07538280925233617</v>
+        <v>0.04299515246245439</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.44675466666667</v>
+        <v>6.162983666666666</v>
       </c>
       <c r="H4">
-        <v>31.340264</v>
+        <v>18.488951</v>
       </c>
       <c r="I4">
-        <v>0.2092639271807731</v>
+        <v>0.08645678993430435</v>
       </c>
       <c r="J4">
-        <v>0.2499877559676775</v>
+        <v>0.1144526672494406</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N4">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O4">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P4">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q4">
-        <v>26.19343352036089</v>
+        <v>15.25927638738533</v>
       </c>
       <c r="R4">
-        <v>235.740901683248</v>
+        <v>137.333487486468</v>
       </c>
       <c r="S4">
-        <v>0.01234608241060573</v>
+        <v>0.006187170573469815</v>
       </c>
       <c r="T4">
-        <v>0.01615322750556764</v>
+        <v>0.009097841629393673</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.44675466666667</v>
+        <v>6.162983666666666</v>
       </c>
       <c r="H5">
-        <v>31.340264</v>
+        <v>18.488951</v>
       </c>
       <c r="I5">
-        <v>0.2092639271807731</v>
+        <v>0.08645678993430435</v>
       </c>
       <c r="J5">
-        <v>0.2499877559676775</v>
+        <v>0.1144526672494406</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N5">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O5">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P5">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q5">
-        <v>115.8115730916533</v>
+        <v>63.78492728417766</v>
       </c>
       <c r="R5">
-        <v>694.86943854992</v>
+        <v>382.709563705066</v>
       </c>
       <c r="S5">
-        <v>0.05458693394968637</v>
+        <v>0.02586284009180324</v>
       </c>
       <c r="T5">
-        <v>0.04761322302331944</v>
+        <v>0.02535310989598307</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.44675466666667</v>
+        <v>6.162983666666666</v>
       </c>
       <c r="H6">
-        <v>31.340264</v>
+        <v>18.488951</v>
       </c>
       <c r="I6">
-        <v>0.2092639271807731</v>
+        <v>0.08645678993430435</v>
       </c>
       <c r="J6">
-        <v>0.2499877559676775</v>
+        <v>0.1144526672494406</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N6">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O6">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P6">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q6">
-        <v>45.91025871280801</v>
+        <v>12.63372619436778</v>
       </c>
       <c r="R6">
-        <v>413.1923284152721</v>
+        <v>113.70353574931</v>
       </c>
       <c r="S6">
-        <v>0.02163946307840698</v>
+        <v>0.005122590151633067</v>
       </c>
       <c r="T6">
-        <v>0.02831239567164767</v>
+        <v>0.007532443687860569</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>37.863356</v>
       </c>
       <c r="I7">
-        <v>0.252819649917553</v>
+        <v>0.1770540803477592</v>
       </c>
       <c r="J7">
-        <v>0.3020196447561928</v>
+        <v>0.2343865850050179</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N7">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O7">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P7">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q7">
-        <v>161.6742667327191</v>
+        <v>101.2379264073178</v>
       </c>
       <c r="R7">
-        <v>1455.068400594472</v>
+        <v>911.14133766586</v>
       </c>
       <c r="S7">
-        <v>0.07620397758105371</v>
+        <v>0.04104888746259799</v>
       </c>
       <c r="T7">
-        <v>0.09970289730437198</v>
+        <v>0.06035978364632068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>37.863356</v>
       </c>
       <c r="I8">
-        <v>0.252819649917553</v>
+        <v>0.1770540803477592</v>
       </c>
       <c r="J8">
-        <v>0.3020196447561928</v>
+        <v>0.2343865850050179</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>35.103086</v>
       </c>
       <c r="O8">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P8">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q8">
         <v>147.6800713240684</v>
@@ -948,10 +948,10 @@
         <v>1329.120641916616</v>
       </c>
       <c r="S8">
-        <v>0.06960791640980558</v>
+        <v>0.05987975893401883</v>
       </c>
       <c r="T8">
-        <v>0.09107281747854129</v>
+        <v>0.08804938495213639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>37.863356</v>
       </c>
       <c r="I9">
-        <v>0.252819649917553</v>
+        <v>0.1770540803477592</v>
       </c>
       <c r="J9">
-        <v>0.3020196447561928</v>
+        <v>0.2343865850050179</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N9">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O9">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P9">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q9">
-        <v>31.64527581017689</v>
+        <v>31.24933448944533</v>
       </c>
       <c r="R9">
-        <v>284.807482291592</v>
+        <v>281.244010405008</v>
       </c>
       <c r="S9">
-        <v>0.01491576821171968</v>
+        <v>0.01267065081496575</v>
       </c>
       <c r="T9">
-        <v>0.01951532391661728</v>
+        <v>0.01863138781888452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>37.863356</v>
       </c>
       <c r="I10">
-        <v>0.252819649917553</v>
+        <v>0.1770540803477592</v>
       </c>
       <c r="J10">
-        <v>0.3020196447561928</v>
+        <v>0.2343865850050179</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N10">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O10">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P10">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q10">
-        <v>139.9163332156133</v>
+        <v>130.6245773053826</v>
       </c>
       <c r="R10">
-        <v>839.4979992936799</v>
+        <v>783.7474638322958</v>
       </c>
       <c r="S10">
-        <v>0.06594853550325744</v>
+        <v>0.05296427696557899</v>
       </c>
       <c r="T10">
-        <v>0.05752333208295055</v>
+        <v>0.05192040509484447</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>37.863356</v>
       </c>
       <c r="I11">
-        <v>0.252819649917553</v>
+        <v>0.1770540803477592</v>
       </c>
       <c r="J11">
-        <v>0.3020196447561928</v>
+        <v>0.2343865850050179</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N11">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O11">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P11">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q11">
-        <v>55.46591661433201</v>
+        <v>25.87249392915111</v>
       </c>
       <c r="R11">
-        <v>499.193249528988</v>
+        <v>232.85244536236</v>
       </c>
       <c r="S11">
-        <v>0.02614345221171652</v>
+        <v>0.01049050617059761</v>
       </c>
       <c r="T11">
-        <v>0.03420527397371173</v>
+        <v>0.01542562349283188</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.035148666666667</v>
+        <v>0.148746</v>
       </c>
       <c r="H12">
-        <v>3.105446</v>
+        <v>0.446238</v>
       </c>
       <c r="I12">
-        <v>0.02073555684176186</v>
+        <v>0.002086668141783929</v>
       </c>
       <c r="J12">
-        <v>0.02477080208446235</v>
+        <v>0.002762359493951598</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N12">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O12">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P12">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q12">
-        <v>13.26006878333911</v>
+        <v>1.19313802517</v>
       </c>
       <c r="R12">
-        <v>119.340619050052</v>
+        <v>10.73824222653</v>
       </c>
       <c r="S12">
-        <v>0.0062500359810465</v>
+        <v>0.0004837810320758362</v>
       </c>
       <c r="T12">
-        <v>0.008177351305633679</v>
+        <v>0.0007113693021497316</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.035148666666667</v>
+        <v>0.148746</v>
       </c>
       <c r="H13">
-        <v>3.105446</v>
+        <v>0.446238</v>
       </c>
       <c r="I13">
-        <v>0.02073555684176186</v>
+        <v>0.002086668141783929</v>
       </c>
       <c r="J13">
-        <v>0.02477080208446235</v>
+        <v>0.002762359493951598</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.103086</v>
       </c>
       <c r="O13">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P13">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q13">
-        <v>12.11230422292844</v>
+        <v>1.740481210052</v>
       </c>
       <c r="R13">
-        <v>109.010738006356</v>
+        <v>15.664330890468</v>
       </c>
       <c r="S13">
-        <v>0.005709045589703277</v>
+        <v>0.0007057119782831374</v>
       </c>
       <c r="T13">
-        <v>0.007469536423223186</v>
+        <v>0.001037704672619919</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.035148666666667</v>
+        <v>0.148746</v>
       </c>
       <c r="H14">
-        <v>3.105446</v>
+        <v>0.446238</v>
       </c>
       <c r="I14">
-        <v>0.02073555684176186</v>
+        <v>0.002086668141783929</v>
       </c>
       <c r="J14">
-        <v>0.02477080208446235</v>
+        <v>0.002762359493951598</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N14">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O14">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P14">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q14">
-        <v>2.595456545996889</v>
+        <v>0.3682885511760001</v>
       </c>
       <c r="R14">
-        <v>23.359108913972</v>
+        <v>3.314596960584</v>
       </c>
       <c r="S14">
-        <v>0.001223349370563244</v>
+        <v>0.0001493297603722365</v>
       </c>
       <c r="T14">
-        <v>0.001600591997063426</v>
+        <v>0.000219579934687337</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.035148666666667</v>
+        <v>0.148746</v>
       </c>
       <c r="H15">
-        <v>3.105446</v>
+        <v>0.446238</v>
       </c>
       <c r="I15">
-        <v>0.02073555684176186</v>
+        <v>0.002086668141783929</v>
       </c>
       <c r="J15">
-        <v>0.02477080208446235</v>
+        <v>0.002762359493951598</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N15">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O15">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P15">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q15">
-        <v>11.47554425231333</v>
+        <v>1.539473947518</v>
       </c>
       <c r="R15">
-        <v>68.85326551388</v>
+        <v>9.236843685107999</v>
       </c>
       <c r="S15">
-        <v>0.005408913456705971</v>
+        <v>0.0006242096718675978</v>
       </c>
       <c r="T15">
-        <v>0.004717901961032468</v>
+        <v>0.0006119071359842801</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.035148666666667</v>
+        <v>0.148746</v>
       </c>
       <c r="H16">
-        <v>3.105446</v>
+        <v>0.446238</v>
       </c>
       <c r="I16">
-        <v>0.02073555684176186</v>
+        <v>0.002086668141783929</v>
       </c>
       <c r="J16">
-        <v>0.02477080208446235</v>
+        <v>0.002762359493951598</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N16">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O16">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P16">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q16">
-        <v>4.549158529062001</v>
+        <v>0.3049198794200001</v>
       </c>
       <c r="R16">
-        <v>40.942426761558</v>
+        <v>2.74427891478</v>
       </c>
       <c r="S16">
-        <v>0.002144212443742868</v>
+        <v>0.0001236356991851207</v>
       </c>
       <c r="T16">
-        <v>0.002805420397509592</v>
+        <v>0.0001817984485103305</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.3970965</v>
+        <v>52.3095915</v>
       </c>
       <c r="H17">
-        <v>48.794193</v>
+        <v>104.619183</v>
       </c>
       <c r="I17">
-        <v>0.4887098805611491</v>
+        <v>0.7338197873743252</v>
       </c>
       <c r="J17">
-        <v>0.3892102125343858</v>
+        <v>0.6476270362665431</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N17">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O17">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P17">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q17">
-        <v>312.522430952361</v>
+        <v>419.5915365775175</v>
       </c>
       <c r="R17">
-        <v>1875.134585714166</v>
+        <v>2517.549219465105</v>
       </c>
       <c r="S17">
-        <v>0.1473051512968478</v>
+        <v>0.1701315542154773</v>
       </c>
       <c r="T17">
-        <v>0.1284862972455137</v>
+        <v>0.1667784348311553</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>24.3970965</v>
+        <v>52.3095915</v>
       </c>
       <c r="H18">
-        <v>48.794193</v>
+        <v>104.619183</v>
       </c>
       <c r="I18">
-        <v>0.4887098805611491</v>
+        <v>0.7338197873743252</v>
       </c>
       <c r="J18">
-        <v>0.3892102125343858</v>
+        <v>0.6476270362665431</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.103086</v>
       </c>
       <c r="O18">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P18">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q18">
-        <v>285.471125529933</v>
+        <v>612.0760296831229</v>
       </c>
       <c r="R18">
-        <v>1712.826753179598</v>
+        <v>3672.456178098737</v>
       </c>
       <c r="S18">
-        <v>0.1345547172691687</v>
+        <v>0.2481781379038615</v>
       </c>
       <c r="T18">
-        <v>0.1173647849150434</v>
+        <v>0.2432867999694746</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>24.3970965</v>
+        <v>52.3095915</v>
       </c>
       <c r="H19">
-        <v>48.794193</v>
+        <v>104.619183</v>
       </c>
       <c r="I19">
-        <v>0.4887098805611491</v>
+        <v>0.7338197873743252</v>
       </c>
       <c r="J19">
-        <v>0.3892102125343858</v>
+        <v>0.6476270362665431</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N19">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O19">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P19">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q19">
-        <v>61.171506908421</v>
+        <v>129.516246931974</v>
       </c>
       <c r="R19">
-        <v>367.029041450526</v>
+        <v>777.0974815918439</v>
       </c>
       <c r="S19">
-        <v>0.02883274027000863</v>
+        <v>0.05251488284635944</v>
       </c>
       <c r="T19">
-        <v>0.02514923615447451</v>
+        <v>0.0514798680752929</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.3970965</v>
+        <v>52.3095915</v>
       </c>
       <c r="H20">
-        <v>48.794193</v>
+        <v>104.619183</v>
       </c>
       <c r="I20">
-        <v>0.4887098805611491</v>
+        <v>0.7338197873743252</v>
       </c>
       <c r="J20">
-        <v>0.3892102125343858</v>
+        <v>0.6476270362665431</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N20">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O20">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P20">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q20">
-        <v>270.463528118385</v>
+        <v>541.3876898844944</v>
       </c>
       <c r="R20">
-        <v>1081.85411247354</v>
+        <v>2165.550759537978</v>
       </c>
       <c r="S20">
-        <v>0.1274809965107145</v>
+        <v>0.2195161748601178</v>
       </c>
       <c r="T20">
-        <v>0.07412984120210002</v>
+        <v>0.1434598233197202</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.3970965</v>
+        <v>52.3095915</v>
       </c>
       <c r="H21">
-        <v>48.794193</v>
+        <v>104.619183</v>
       </c>
       <c r="I21">
-        <v>0.4887098805611491</v>
+        <v>0.7338197873743252</v>
       </c>
       <c r="J21">
-        <v>0.3892102125343858</v>
+        <v>0.6476270362665431</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N21">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O21">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P21">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q21">
-        <v>107.2177004146815</v>
+        <v>107.231349634205</v>
       </c>
       <c r="R21">
-        <v>643.3062024880891</v>
+        <v>643.38809780523</v>
       </c>
       <c r="S21">
-        <v>0.05053627521440938</v>
+        <v>0.04347903754850918</v>
       </c>
       <c r="T21">
-        <v>0.04408005301725412</v>
+        <v>0.04262211007090017</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.421312333333334</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H22">
-        <v>4.263937</v>
+        <v>0.124606</v>
       </c>
       <c r="I22">
-        <v>0.028470985498763</v>
+        <v>0.0005826742018275633</v>
       </c>
       <c r="J22">
-        <v>0.03401158465728148</v>
+        <v>0.0007713519850468424</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N22">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O22">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P22">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q22">
-        <v>18.20675610132156</v>
+        <v>0.3331678538455556</v>
       </c>
       <c r="R22">
-        <v>163.860804911894</v>
+        <v>2.99851068461</v>
       </c>
       <c r="S22">
-        <v>0.008581620698255734</v>
+        <v>0.0001350893901524335</v>
       </c>
       <c r="T22">
-        <v>0.01122792371662227</v>
+        <v>0.0001986403741135211</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.421312333333334</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H23">
-        <v>4.263937</v>
+        <v>0.124606</v>
       </c>
       <c r="I23">
-        <v>0.028470985498763</v>
+        <v>0.0005826742018275633</v>
       </c>
       <c r="J23">
-        <v>0.03401158465728148</v>
+        <v>0.0007713519850468424</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>35.103086</v>
       </c>
       <c r="O23">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P23">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q23">
-        <v>16.63081635662022</v>
+        <v>0.4860061260128888</v>
       </c>
       <c r="R23">
-        <v>149.677347209582</v>
+        <v>4.374055134115999</v>
       </c>
       <c r="S23">
-        <v>0.00783881308018965</v>
+        <v>0.0001970606420025829</v>
       </c>
       <c r="T23">
-        <v>0.01025605749635608</v>
+        <v>0.0002897651666520503</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.421312333333334</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H24">
-        <v>4.263937</v>
+        <v>0.124606</v>
       </c>
       <c r="I24">
-        <v>0.028470985498763</v>
+        <v>0.0005826742018275633</v>
       </c>
       <c r="J24">
-        <v>0.03401158465728148</v>
+        <v>0.0007713519850468424</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N24">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O24">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P24">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q24">
-        <v>3.563695262570445</v>
+        <v>0.1028396577786667</v>
       </c>
       <c r="R24">
-        <v>32.073257363134</v>
+        <v>0.9255569200079999</v>
       </c>
       <c r="S24">
-        <v>0.001679721574637373</v>
+        <v>4.169834061855536E-05</v>
       </c>
       <c r="T24">
-        <v>0.002197695093774818</v>
+        <v>6.131476329145056E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.421312333333334</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H25">
-        <v>4.263937</v>
+        <v>0.124606</v>
       </c>
       <c r="I25">
-        <v>0.028470985498763</v>
+        <v>0.0005826742018275633</v>
       </c>
       <c r="J25">
-        <v>0.03401158465728148</v>
+        <v>0.0007713519850468424</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N25">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O25">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P25">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q25">
-        <v>15.75651218297667</v>
+        <v>0.4298775332993333</v>
       </c>
       <c r="R25">
-        <v>94.53907309786</v>
+        <v>2.579265199796</v>
       </c>
       <c r="S25">
-        <v>0.007426716232659171</v>
+        <v>0.0001743022117630813</v>
       </c>
       <c r="T25">
-        <v>0.006477921926196398</v>
+        <v>0.0001708668929729364</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.421312333333334</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H26">
-        <v>4.263937</v>
+        <v>0.124606</v>
       </c>
       <c r="I26">
-        <v>0.028470985498763</v>
+        <v>0.0005826742018275633</v>
       </c>
       <c r="J26">
-        <v>0.03401158465728148</v>
+        <v>0.0007713519850468424</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N26">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O26">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P26">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q26">
-        <v>6.246228519489001</v>
+        <v>0.08514480276222224</v>
       </c>
       <c r="R26">
-        <v>56.21605667540101</v>
+        <v>0.76630322486</v>
       </c>
       <c r="S26">
-        <v>0.002944113913021072</v>
+        <v>3.452361729091012E-05</v>
       </c>
       <c r="T26">
-        <v>0.003851986424331918</v>
+        <v>5.076478801688393E-05</v>
       </c>
     </row>
   </sheetData>
